--- a/data/trans_camb/P17A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P17A_R-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-13,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-9,68</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 22,37</t>
+          <t>-13,9; 0,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 13,3</t>
+          <t>-20,75; -5,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 11,56</t>
+          <t>-15,25; -5,11</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>-62,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
+          <t>-76,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>-72,08%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,41; 224,74</t>
+          <t>-91,66; 44,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-63,58; 84,69</t>
+          <t>-91,68; -34,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,14; 82,94</t>
+          <t>-88,33; -45,65</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>-7,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>-5,54</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 7,82</t>
+          <t>-6,2; -0,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 16,53</t>
+          <t>-11,81; -4,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 9,26</t>
+          <t>-7,96; -3,2</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>-71,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>-71,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>-71,63%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,05; 134,33</t>
+          <t>-94,22; -1,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 152,38</t>
+          <t>-85,71; -43,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 112,63</t>
+          <t>-85,19; -50,07</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-7,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-6,93</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 24,57</t>
+          <t>-11,32; -3,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 7,92</t>
+          <t>-11,8; -3,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 13,74</t>
+          <t>-10,04; -4,52</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>-94,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,79%</t>
+          <t>-80,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>-86,19%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 492,1</t>
+          <t>-100,0; -52,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,97; 100,55</t>
+          <t>-92,67; -49,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,62; 188,7</t>
+          <t>-94,56; -69,98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-10,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-8,19</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 11,36</t>
+          <t>-8,88; -2,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 7,41</t>
+          <t>-13,25; -7,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 6,51</t>
+          <t>-10,06; -5,76</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>-67,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>-81,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>-75,97%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 155,53</t>
+          <t>-86,33; -23,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 64,51</t>
+          <t>-90,88; -66,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 71,16</t>
+          <t>-85,55; -55,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-5,65</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-9,66</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-7,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-7,31; -3,52</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-11,56; -7,88</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,12; -6,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-74,66%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-78,43%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-77,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-85,73; -50,83</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-85,19; -69,05</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-83,43; -68,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P17A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P17A_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,75</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-13,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-9,68</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>8.196606638980104</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.7582498496969792</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.338027634211133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,9; 0,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-20,75; -5,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,25; -5,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.743117642462753</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.83674488250234</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.012022505929578</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-62,53%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-76,69%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-72,08%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>28.61571094182245</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.05782169973097</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.82553319243733</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-91,66; 44,33</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-91,68; -34,24</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-88,33; -45,65</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.8912660226230156</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.04424503152014859</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.2484936678683999</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,01</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-7,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,54</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.6119779208344055</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.7700700449742396</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.4060581637826429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,2; -0,48</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,81; -4,06</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,96; -3,2</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>4.534427179346544</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.138571256893148</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.525738558818445</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-71,27%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-71,47%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-71,63%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.113391860515276</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.363462137874995</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.795934729099907</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-94,22; -1,93</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-85,71; -43,79</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-85,19; -50,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.786212442685819</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.243441679037648</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2419306532395183</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-6,35</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-7,37</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-6,93</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.41281562870162</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.1246570911665</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.18700065205346</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,32; -3,32</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,8; -3,6</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,04; -4,52</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.7363812663157915</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.7686965271722367</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.7496324221475844</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-94,75%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-80,24%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-86,19%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.5998640321856064</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1144400882718288</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.007277269621320671</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -52,08</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-92,67; -49,9</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-94,56; -69,98</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>4.497254511915565</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>2.247617627221087</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>2.054907634065831</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-5,82</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-10,62</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-8,19</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-5.24683017682574</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.7566642131102044</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-2.780934462420932</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,88; -2,45</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-13,25; -7,75</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-10,06; -5,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-9.479424369245629</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-6.478451932448628</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.7668770182486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-67,66%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-81,58%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-75,97%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-0.3312695409872772</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>10.57003171951663</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2.149199053296076</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-86,33; -23,84</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-90,88; -66,57</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-85,55; -55,86</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.7830738337635405</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.08234487943663818</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.3458693840553122</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-5,65</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-9,66</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-7,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.6290989502922735</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.7295958593387961</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-7,31; -3,52</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-11,56; -7,88</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-9,12; -6,36</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.6260196904502504</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1.531526717710255</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.3659937350392178</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-74,66%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-78,43%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-77,03%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.3865651438818285</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.883464269826786</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2.054068003033022</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-85,73; -50,83</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-85,19; -69,05</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-83,43; -68,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.418982954175973</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.582610743884677</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.401368384807757</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.134656757728036</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>11.81640324200895</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.10781480232297</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.06521127169529917</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.3418750278579037</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.2329583802126441</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.5246263207788278</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1391552252944072</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1545622050649765</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.361284945995549</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.136892438265955</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.768000415441175</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
